--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/93.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/93.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2187039796225774</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.312748723225178</v>
+        <v>-1.317470518751177</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1708305108445756</v>
+        <v>-0.1682841869740309</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1353790831492215</v>
+        <v>-0.1298469609327685</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2177468485193651</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.386632996817522</v>
+        <v>-1.387485664902613</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2391155000082845</v>
+        <v>-0.2362538057501035</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1375895959588573</v>
+        <v>-0.1336343256805856</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2152121997977474</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.49124544253113</v>
+        <v>-1.491481970321857</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2837039086565453</v>
+        <v>-0.282461407731182</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1425961008625832</v>
+        <v>-0.1384130630821298</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2099882301095923</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.650009611888451</v>
+        <v>-1.644668755971907</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2908026624745434</v>
+        <v>-0.292519679029452</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1518192246528535</v>
+        <v>-0.1485793779391271</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2011436196138036</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.745388713475153</v>
+        <v>-1.739218550242973</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2901704616511799</v>
+        <v>-0.2917881949359068</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1665306692168495</v>
+        <v>-0.1656780011317588</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1902012843295817</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.586142728247832</v>
+        <v>-1.579557911357834</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2224315304734709</v>
+        <v>-0.2247471667456521</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1702596320410303</v>
+        <v>-0.1719664282593026</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1802565007926568</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.423551772844239</v>
+        <v>-1.420218483052695</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1487502035657634</v>
+        <v>-0.1486961817863998</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1518571859032171</v>
+        <v>-0.1521900768679443</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1715698202395541</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.153993314156402</v>
+        <v>-1.150575341575585</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.007915424764801187</v>
+        <v>-0.007649696012255804</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1274933634102236</v>
+        <v>-0.1289869926072232</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1605025197904562</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7810707508726845</v>
+        <v>-0.7790485842667759</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0783704973117211</v>
+        <v>0.07841137865826654</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1141616642921363</v>
+        <v>-0.1161575500324085</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1429536420363519</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4006172595360594</v>
+        <v>-0.4029620967700587</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1154600989650748</v>
+        <v>0.1204534634359825</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07117638844769329</v>
+        <v>-0.07253131307605656</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1154135644976731</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07223099508945002</v>
+        <v>0.0668404975378151</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1294561199645256</v>
+        <v>0.1338844458242517</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02900189121382526</v>
+        <v>0.02809374130128005</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.07622417977918465</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6140344009523955</v>
+        <v>0.607597048919579</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04782191110563839</v>
+        <v>0.05328541106181874</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1840546183240564</v>
+        <v>0.1800044449198756</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.02422495945267037</v>
       </c>
       <c r="E14" t="n">
-        <v>1.180249810895334</v>
+        <v>1.1719684181237</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.09648486205550467</v>
+        <v>-0.0932508555341419</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3138368330768397</v>
+        <v>0.3088989504333864</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.04099998038337132</v>
       </c>
       <c r="E15" t="n">
-        <v>1.826064122658434</v>
+        <v>1.819676412260708</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2605110447324606</v>
+        <v>-0.2609300785345514</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4944842032207002</v>
+        <v>0.4904968118844286</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1169256805912093</v>
       </c>
       <c r="E16" t="n">
-        <v>2.459311800503082</v>
+        <v>2.448136592415266</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4973527457992152</v>
+        <v>-0.4976038740708515</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6150505944236679</v>
+        <v>0.6084132158023969</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1988853515638364</v>
       </c>
       <c r="E17" t="n">
-        <v>3.072348032625281</v>
+        <v>3.059661674763375</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.634676108941542</v>
+        <v>-0.6324305549777244</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8005555445659818</v>
+        <v>0.7949153787908014</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2848387535962797</v>
       </c>
       <c r="E18" t="n">
-        <v>3.678640302615573</v>
+        <v>3.661052563312486</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.758866339506145</v>
+        <v>-0.7556907349084185</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9398981542180352</v>
+        <v>0.9364553608196725</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3742447812442549</v>
       </c>
       <c r="E19" t="n">
-        <v>4.213105506773611</v>
+        <v>4.19498046977307</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9163471265915573</v>
+        <v>-0.9135657349783762</v>
       </c>
       <c r="G19" t="n">
-        <v>1.093682099537267</v>
+        <v>1.088992425069268</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4645148637146871</v>
       </c>
       <c r="E20" t="n">
-        <v>4.757515098478828</v>
+        <v>4.738287725169652</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.132285319140772</v>
+        <v>-1.129033792042318</v>
       </c>
       <c r="G20" t="n">
-        <v>1.252326544951133</v>
+        <v>1.248034003563862</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5502771331551399</v>
       </c>
       <c r="E21" t="n">
-        <v>5.220824858926431</v>
+        <v>5.198490503279801</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.290296103683184</v>
+        <v>-1.285834196717367</v>
       </c>
       <c r="G21" t="n">
-        <v>1.429826051410995</v>
+        <v>1.424222386838087</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.624050016906705</v>
       </c>
       <c r="E22" t="n">
-        <v>5.623992318413323</v>
+        <v>5.601901790797874</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.495733630362583</v>
+        <v>-1.492774112882312</v>
       </c>
       <c r="G22" t="n">
-        <v>1.543684981684328</v>
+        <v>1.539459602509238</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6809911978818827</v>
       </c>
       <c r="E23" t="n">
-        <v>5.899214303645794</v>
+        <v>5.874183239175256</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.678994486589171</v>
+        <v>-1.672995148983627</v>
       </c>
       <c r="G23" t="n">
-        <v>1.706849735987648</v>
+        <v>1.700711693813467</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7185963949451941</v>
       </c>
       <c r="E24" t="n">
-        <v>6.202076459287259</v>
+        <v>6.178410539781719</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.849652207695034</v>
+        <v>-1.845149419382671</v>
       </c>
       <c r="G24" t="n">
-        <v>1.816795737377345</v>
+        <v>1.813919442638255</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.737657634013259</v>
       </c>
       <c r="E25" t="n">
-        <v>6.411863469229475</v>
+        <v>6.389532033679027</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.986362350639179</v>
+        <v>-1.980236718873772</v>
       </c>
       <c r="G25" t="n">
-        <v>1.917090820886136</v>
+        <v>1.916033746068319</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.7407107579872348</v>
       </c>
       <c r="E26" t="n">
-        <v>6.508518652847631</v>
+        <v>6.489002190016454</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.090739728610151</v>
+        <v>-2.086269061355789</v>
       </c>
       <c r="G26" t="n">
-        <v>1.982027919777392</v>
+        <v>1.979954651488301</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.7308603585229145</v>
       </c>
       <c r="E27" t="n">
-        <v>6.562109718024435</v>
+        <v>6.542438490095622</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.178468178200491</v>
+        <v>-2.174274920083402</v>
       </c>
       <c r="G27" t="n">
-        <v>2.063446041518824</v>
+        <v>2.061775746502825</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7111531850476694</v>
       </c>
       <c r="E28" t="n">
-        <v>6.670988424259678</v>
+        <v>6.652456033841774</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.23557868930043</v>
+        <v>-2.233349195865613</v>
       </c>
       <c r="G28" t="n">
-        <v>2.095361232737998</v>
+        <v>2.091915519243453</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.6833255717892316</v>
       </c>
       <c r="E29" t="n">
-        <v>6.607020797300787</v>
+        <v>6.589129367994791</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.296567818153869</v>
+        <v>-2.293476896345415</v>
       </c>
       <c r="G29" t="n">
-        <v>2.138238465023714</v>
+        <v>2.137388717034804</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.6495725323102201</v>
       </c>
       <c r="E30" t="n">
-        <v>6.577691351250612</v>
+        <v>6.556314787151618</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.330297119125996</v>
+        <v>-2.328366935549814</v>
       </c>
       <c r="G30" t="n">
-        <v>2.122461185353354</v>
+        <v>2.121754522077354</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.6109997814084269</v>
       </c>
       <c r="E31" t="n">
-        <v>6.487653105580454</v>
+        <v>6.467089788268097</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.311459578657092</v>
+        <v>-2.309879806622729</v>
       </c>
       <c r="G31" t="n">
-        <v>2.102762216510814</v>
+        <v>2.103803230799632</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.5703262468217807</v>
       </c>
       <c r="E32" t="n">
-        <v>6.309081923821866</v>
+        <v>6.291368620382962</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.318078706677226</v>
+        <v>-2.315705398505454</v>
       </c>
       <c r="G32" t="n">
-        <v>2.042723578964557</v>
+        <v>2.041520499337648</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.5290408638610039</v>
       </c>
       <c r="E33" t="n">
-        <v>6.129545650275187</v>
+        <v>6.108491756804284</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.336016127498085</v>
+        <v>-2.337837537491494</v>
       </c>
       <c r="G33" t="n">
-        <v>1.980442307550665</v>
+        <v>1.976100124528303</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.4882276738202851</v>
       </c>
       <c r="E34" t="n">
-        <v>5.887498877764343</v>
+        <v>5.868781061238893</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.386084826655572</v>
+        <v>-2.382044143563982</v>
       </c>
       <c r="G34" t="n">
-        <v>1.894737484614324</v>
+        <v>1.892402867716961</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.4482809712326654</v>
       </c>
       <c r="E35" t="n">
-        <v>5.663985955719494</v>
+        <v>5.643796410718409</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.372319493254484</v>
+        <v>-2.369622054406531</v>
       </c>
       <c r="G35" t="n">
-        <v>1.826366352613252</v>
+        <v>1.823722205520616</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.4091080115041071</v>
       </c>
       <c r="E36" t="n">
-        <v>5.473916895245</v>
+        <v>5.453534623895914</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.338283582183266</v>
+        <v>-2.33053729703695</v>
       </c>
       <c r="G36" t="n">
-        <v>1.736887305361912</v>
+        <v>1.735803949678458</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.3707884408284751</v>
       </c>
       <c r="E37" t="n">
-        <v>5.109125339779552</v>
+        <v>5.090925840326375</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.275751182497738</v>
+        <v>-2.270033634173739</v>
       </c>
       <c r="G37" t="n">
-        <v>1.651290525984299</v>
+        <v>1.64915593567539</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.3323688099258716</v>
       </c>
       <c r="E38" t="n">
-        <v>4.840661917159897</v>
+        <v>4.816836852412449</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.17326821692472</v>
+        <v>-2.165519741706267</v>
       </c>
       <c r="G38" t="n">
-        <v>1.555817981319779</v>
+        <v>1.550208476554508</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.2933052238670586</v>
       </c>
       <c r="E39" t="n">
-        <v>4.546012532029795</v>
+        <v>4.523390546909255</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.155960076831043</v>
+        <v>-2.147918861970363</v>
       </c>
       <c r="G39" t="n">
-        <v>1.444603198139081</v>
+        <v>1.438243228655083</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.2526881133810846</v>
       </c>
       <c r="E40" t="n">
-        <v>4.274507829236776</v>
+        <v>4.254462828996691</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.127074485400505</v>
+        <v>-2.118830323855189</v>
       </c>
       <c r="G40" t="n">
-        <v>1.384192248329643</v>
+        <v>1.381838650807098</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.2100666097357388</v>
       </c>
       <c r="E41" t="n">
-        <v>3.975831631471947</v>
+        <v>3.959312647371406</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.037026019393711</v>
+        <v>-2.029116208861213</v>
       </c>
       <c r="G41" t="n">
-        <v>1.263627317174767</v>
+        <v>1.261716114223767</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.1645992480153224</v>
       </c>
       <c r="E42" t="n">
-        <v>3.717863034529744</v>
+        <v>3.703986737473747</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.942598139138236</v>
+        <v>-1.934124020018602</v>
       </c>
       <c r="G42" t="n">
-        <v>1.158687820688795</v>
+        <v>1.156906562017886</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.1158954143399186</v>
       </c>
       <c r="E43" t="n">
-        <v>3.44980404523127</v>
+        <v>3.433470487238275</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.875301602532073</v>
+        <v>-1.866850844181893</v>
       </c>
       <c r="G43" t="n">
-        <v>1.065939725761911</v>
+        <v>1.064098605119275</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.06409366381112404</v>
       </c>
       <c r="E44" t="n">
-        <v>3.182426898391251</v>
+        <v>3.165172050052892</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.834766287384174</v>
+        <v>-1.826361520548858</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9341543250284003</v>
+        <v>0.9304034614828559</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.01039147868477707</v>
       </c>
       <c r="E45" t="n">
-        <v>2.92279092652923</v>
+        <v>2.907296896188507</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.747929197153334</v>
+        <v>-1.742870130518335</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8114343628913424</v>
+        <v>0.8095450606617066</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.04318371349104346</v>
       </c>
       <c r="E46" t="n">
-        <v>2.672056867877479</v>
+        <v>2.658025805723847</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.698083155329711</v>
+        <v>-1.694230088417803</v>
       </c>
       <c r="G46" t="n">
-        <v>0.771575050009535</v>
+        <v>0.7687469368574448</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.09418618519669344</v>
       </c>
       <c r="E47" t="n">
-        <v>2.371946902887378</v>
+        <v>2.358013663955836</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.65071481511636</v>
+        <v>-1.647350864314906</v>
       </c>
       <c r="G47" t="n">
-        <v>0.662943091901655</v>
+        <v>0.6618086345350189</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.1404603719404298</v>
       </c>
       <c r="E48" t="n">
-        <v>2.17808025732843</v>
+        <v>2.166303509427161</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.616516108683006</v>
+        <v>-1.613334663892916</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6004311328893991</v>
+        <v>0.5995930652852175</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.180298775366099</v>
       </c>
       <c r="E49" t="n">
-        <v>1.982022079585028</v>
+        <v>1.96901013099885</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.566287534259565</v>
+        <v>-1.56449605525202</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5384608517188703</v>
+        <v>0.538576195518052</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.2133063959950756</v>
       </c>
       <c r="E50" t="n">
-        <v>1.867679873393604</v>
+        <v>1.856234556408971</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.491223541809767</v>
+        <v>-1.491381227003585</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4767387787237959</v>
+        <v>0.4773125776235231</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.2400834194436694</v>
       </c>
       <c r="E51" t="n">
-        <v>1.689675190294288</v>
+        <v>1.6798607470272</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.43187550701051</v>
+        <v>-1.433710787460782</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4194844528869022</v>
+        <v>0.4193296877892659</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.262241039615101</v>
       </c>
       <c r="E52" t="n">
-        <v>1.571509118152775</v>
+        <v>1.561335503055323</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.390731351808703</v>
+        <v>-1.393660208279065</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3383262197056513</v>
+        <v>0.3384532438895603</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2814406212116646</v>
       </c>
       <c r="E53" t="n">
-        <v>1.390225167041278</v>
+        <v>1.384104645444189</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.353745413569803</v>
+        <v>-1.356272756815166</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2724649103728508</v>
+        <v>0.2718531502227601</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2988921647780808</v>
       </c>
       <c r="E54" t="n">
-        <v>1.342850986635563</v>
+        <v>1.332356160958112</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.333647851598445</v>
+        <v>-1.337387034759262</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2165903299818658</v>
+        <v>0.2193556610660469</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3157360677862282</v>
       </c>
       <c r="E55" t="n">
-        <v>1.217139385960234</v>
+        <v>1.20948581386769</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.298885566602</v>
+        <v>-1.301329687106181</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1663515352217884</v>
+        <v>0.1641176616426981</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3323916988980036</v>
       </c>
       <c r="E56" t="n">
-        <v>1.18761721356206</v>
+        <v>1.179591329206334</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.244450593628651</v>
+        <v>-1.24841754429165</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1073466117238951</v>
+        <v>0.1040921645292597</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3494674769856386</v>
       </c>
       <c r="E57" t="n">
-        <v>1.098348413235811</v>
+        <v>1.088993885117359</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.238681943621471</v>
+        <v>-1.240168272578016</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06541987074536094</v>
+        <v>0.06086598074981671</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3667700213744493</v>
       </c>
       <c r="E58" t="n">
-        <v>1.045207042871007</v>
+        <v>1.035350258209282</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.200259318061117</v>
+        <v>-1.202699058421026</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01170570960880017</v>
+        <v>-0.01635596277834438</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3845929944539739</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9359501841802181</v>
+        <v>0.9264481912045843</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.114180722813504</v>
+        <v>-1.118616348913685</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.08754936773914344</v>
+        <v>-0.0927967805778693</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.402417689365513</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9177609050636775</v>
+        <v>0.902799792276136</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.095949102302327</v>
+        <v>-1.099850350801235</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1129220834629548</v>
+        <v>-0.1195580020361348</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4204169699425548</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7850381534558041</v>
+        <v>0.7698930746088082</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.065199029459699</v>
+        <v>-1.069850742677334</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1413828008990381</v>
+        <v>-0.1480479204340363</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4381395321479358</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7450094749954512</v>
+        <v>0.7302104275460006</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.059877154168337</v>
+        <v>-1.064531787482154</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2178659600931994</v>
+        <v>-0.2236711113026524</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4554398421578322</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6556384713028388</v>
+        <v>0.6391881094625705</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.094440872624419</v>
+        <v>-1.09960068257769</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.232136470133741</v>
+        <v>-0.2386351441863756</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4720805008805976</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5721733621379521</v>
+        <v>0.5502010984178671</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.079600943828422</v>
+        <v>-1.085744826194966</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2801136504010008</v>
+        <v>-0.2889440212548166</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4875494442650964</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4891667080736108</v>
+        <v>0.4657227158778898</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.048186549104431</v>
+        <v>-1.053312777951611</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3117485123867196</v>
+        <v>-0.3212607256989898</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5019861780758128</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4395382134155332</v>
+        <v>0.4168242452652666</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.063871845745063</v>
+        <v>-1.069300304547062</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3408516509828027</v>
+        <v>-0.3501667578028002</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5146361832678353</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4154561802040851</v>
+        <v>0.3891694743753649</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.08115589504524</v>
+        <v>-1.087720271261966</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3706307918449765</v>
+        <v>-0.3830879221566095</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5258219899104789</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3361770289158337</v>
+        <v>0.3099720857802044</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.097330307796327</v>
+        <v>-1.103188020737053</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3831404838878822</v>
+        <v>-0.3938046751438794</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5347293373035115</v>
       </c>
       <c r="E69" t="n">
-        <v>0.23480150981977</v>
+        <v>0.2059086181487778</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.138610247470589</v>
+        <v>-1.14479939132795</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4044323651976038</v>
+        <v>-0.4167537110367823</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5411727302273058</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1724866572997867</v>
+        <v>0.1424125867232494</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.187935052125757</v>
+        <v>-1.19290505582721</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4225705426309626</v>
+        <v>-0.4338756949988686</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5438220539554307</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1174764253786197</v>
+        <v>0.09103787454844497</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.277457900819824</v>
+        <v>-1.279831939015641</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4845437438976732</v>
+        <v>-0.4948502233713977</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5417033973782396</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0346478971813692</v>
+        <v>0.004754872568104501</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.311669747685997</v>
+        <v>-1.315585596665814</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4796774036106745</v>
+        <v>-0.4886756799949448</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5341049454916553</v>
       </c>
       <c r="E73" t="n">
-        <v>0.02064311589337296</v>
+        <v>-0.008811894292619129</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.30198670874709</v>
+        <v>-1.305974100083362</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5291934745657522</v>
+        <v>-0.5386502060505678</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5205422852332267</v>
       </c>
       <c r="E74" t="n">
-        <v>0.04890964693336537</v>
+        <v>0.02095994632910015</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.342538084423988</v>
+        <v>-1.346176524266533</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5178007193123916</v>
+        <v>-0.5242263909604807</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5015051543208958</v>
       </c>
       <c r="E75" t="n">
-        <v>0.05598503998190893</v>
+        <v>0.02676363749046223</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.394140564100974</v>
+        <v>-1.396711708789065</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4672465541646779</v>
+        <v>-0.4747818623618577</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4772356502847839</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1047272854488049</v>
+        <v>0.07778501802726671</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.339891017235171</v>
+        <v>-1.342838854330715</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4777253193131296</v>
+        <v>-0.4851598841920367</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4491389817814005</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2182971262001381</v>
+        <v>0.1910774496413272</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.339109891506535</v>
+        <v>-1.341183159795625</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4236568184105987</v>
+        <v>-0.4309877198750512</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4180112973700428</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2992699332738436</v>
+        <v>0.2749309315983956</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.304988567621998</v>
+        <v>-1.30741808764527</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4279946212886884</v>
+        <v>-0.4327791988825962</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3849415323035653</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3888672444205468</v>
+        <v>0.3667051744486437</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.31276770385036</v>
+        <v>-1.321052016718176</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3961159312717878</v>
+        <v>-0.400847947134423</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3503305834549208</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4863473552100661</v>
+        <v>0.4687566958107981</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.332903227072082</v>
+        <v>-1.337715545579717</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3395945495765303</v>
+        <v>-0.3431935681206202</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3144101409858029</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5813366239564951</v>
+        <v>0.5668704674717717</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.281797163746005</v>
+        <v>-1.286186068307276</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2885775491839985</v>
+        <v>-0.2918319963786341</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2773580085880096</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7125058843956418</v>
+        <v>0.7019862379006445</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.214372142907841</v>
+        <v>-1.22031599868593</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2562973459420981</v>
+        <v>-0.2586640838974612</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2392144205051839</v>
       </c>
       <c r="E83" t="n">
-        <v>0.864933445038419</v>
+        <v>0.8570842265016938</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.160765017202037</v>
+        <v>-1.164931994453491</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2136464211104732</v>
+        <v>-0.2154145393485636</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2006402869587529</v>
       </c>
       <c r="E84" t="n">
-        <v>1.031952726301738</v>
+        <v>1.025855565474103</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.069311984931789</v>
+        <v>-1.073613286607606</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1676388457178492</v>
+        <v>-0.1662079985887587</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1621176597416037</v>
       </c>
       <c r="E85" t="n">
-        <v>1.121068221578441</v>
+        <v>1.119380405985351</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.995270026145627</v>
+        <v>-1.002273876837716</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1325670305261314</v>
+        <v>-0.1316209193632225</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1249640717175454</v>
       </c>
       <c r="E86" t="n">
-        <v>1.281861857782125</v>
+        <v>1.283692758088125</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9187416054606475</v>
+        <v>-0.9259425626450092</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04864930645306298</v>
+        <v>-0.04694835042715434</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.09000851918353588</v>
       </c>
       <c r="E87" t="n">
-        <v>1.382924926586734</v>
+        <v>1.382043057539825</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8183107374794018</v>
+        <v>-0.825631418607218</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.0187592019359801</v>
+        <v>-0.01791237404325305</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.0587573366580151</v>
       </c>
       <c r="E88" t="n">
-        <v>1.469565640349348</v>
+        <v>1.469080904383166</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6925319745918901</v>
+        <v>-0.6984904308508885</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03147083253555187</v>
+        <v>0.0331703285133696</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.03268146830299383</v>
       </c>
       <c r="E89" t="n">
-        <v>1.565464519056413</v>
+        <v>1.566708480029867</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5586397244631988</v>
+        <v>-0.5659808462642877</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07882019212372098</v>
+        <v>0.07884355289317552</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.01386550630669454</v>
       </c>
       <c r="E90" t="n">
-        <v>1.62344740889067</v>
+        <v>1.626417146707578</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4334143198021415</v>
+        <v>-0.4380514325388675</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09066556228526325</v>
+        <v>0.09167883566035388</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.004457144023665637</v>
       </c>
       <c r="E91" t="n">
-        <v>1.664593024140568</v>
+        <v>1.669833136738839</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.270851105312276</v>
+        <v>-0.2776038277327288</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1034701840425325</v>
+        <v>0.1058559026230774</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.005192560348170655</v>
       </c>
       <c r="E92" t="n">
-        <v>1.693956051296833</v>
+        <v>1.699619577841468</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1148026254040452</v>
+        <v>-0.1190484452524077</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1055551327163502</v>
+        <v>0.1034877046196234</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.01531930734144879</v>
       </c>
       <c r="E93" t="n">
-        <v>1.689910258036925</v>
+        <v>1.695540203475469</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0400690557429132</v>
+        <v>0.03855060572836815</v>
       </c>
       <c r="G93" t="n">
-        <v>0.100312100021897</v>
+        <v>0.09906083880798827</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.03269705989365149</v>
       </c>
       <c r="E94" t="n">
-        <v>1.636809769018666</v>
+        <v>1.64380485942221</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1455954915614303</v>
+        <v>0.1481228348067933</v>
       </c>
       <c r="G94" t="n">
-        <v>0.061485041140362</v>
+        <v>0.06022063949363506</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.05420248290526142</v>
       </c>
       <c r="E95" t="n">
-        <v>1.543835366637691</v>
+        <v>1.553172374179052</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2289861382736807</v>
+        <v>0.2327720429734069</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01325673260146585</v>
+        <v>0.01142145215119362</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.07599627068348365</v>
       </c>
       <c r="E96" t="n">
-        <v>1.421597220370633</v>
+        <v>1.430237784972631</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3065263722856598</v>
+        <v>0.3120015526265675</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02478044026288757</v>
+        <v>-0.02832981717188662</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.09287154991910987</v>
       </c>
       <c r="E97" t="n">
-        <v>1.26591521253322</v>
+        <v>1.275948663013945</v>
       </c>
       <c r="F97" t="n">
-        <v>0.358096730904646</v>
+        <v>0.3621483643569176</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04530579632488205</v>
+        <v>-0.04879531126215385</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1016983943676169</v>
       </c>
       <c r="E98" t="n">
-        <v>1.136347624849801</v>
+        <v>1.143783649776799</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3780993897500952</v>
+        <v>0.3816005850720942</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08136022388178146</v>
+        <v>-0.08590827368496207</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1012386447665352</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9861466375456591</v>
+        <v>0.9908319318693852</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3741441194718235</v>
+        <v>0.3767926467087319</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1224956187950431</v>
+        <v>-0.1263019641680421</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.09533476871764344</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8814422088023236</v>
+        <v>0.8831387846839596</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3452833488588312</v>
+        <v>0.3463754648308309</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1363529352258576</v>
+        <v>-0.1404264693994929</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.08795958286826405</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7437932549357242</v>
+        <v>0.7435611072892697</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3490269121639211</v>
+        <v>0.3478077720080124</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1298265202594957</v>
+        <v>-0.1332576332731312</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.08526827003438393</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6278493759885736</v>
+        <v>0.6297678791800276</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3049480602993875</v>
+        <v>0.305308692177842</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1939270115946603</v>
+        <v>-0.1949388249216601</v>
       </c>
     </row>
   </sheetData>
